--- a/data_files/Master_Sample_List.xlsx
+++ b/data_files/Master_Sample_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erin_\Documents\Voss Lab (M.S.)\Lab Work\P.astreoides popgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erin_\Documents\GitHub\SEFL_Pastreoides_2bRAD\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FB98B-FA74-4A0E-895A-4358A077504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16962AD1-04F7-4C56-A700-1D0267E3EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="12" xr2:uid="{434D8A9B-0D0B-4ABF-AC04-A196659A4FA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{434D8A9B-0D0B-4ABF-AC04-A196659A4FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -2473,7 +2473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2683,12 +2683,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3540,7 +3534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4186,13 +4180,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4827,8 +4824,8 @@
   </sheetPr>
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5"/>
@@ -8683,11 +8680,11 @@
       <c r="G77" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H77" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I77" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H77" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I77" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J77" s="31">
         <v>32</v>
@@ -8733,11 +8730,11 @@
       <c r="G78" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H78" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I78" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H78" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I78" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J78" s="31">
         <v>33</v>
@@ -8783,11 +8780,11 @@
       <c r="G79" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H79" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I79" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H79" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I79" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J79" s="31">
         <v>34</v>
@@ -8833,11 +8830,11 @@
       <c r="G80" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H80" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I80" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H80" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I80" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J80" s="31">
         <v>35</v>
@@ -8883,11 +8880,11 @@
       <c r="G81" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H81" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I81" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H81" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I81" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J81" s="31">
         <v>327</v>
@@ -8933,11 +8930,11 @@
       <c r="G82" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H82" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I82" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H82" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I82" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J82" s="31">
         <v>328</v>
@@ -8983,11 +8980,11 @@
       <c r="G83" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H83" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I83" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H83" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I83" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J83" s="31">
         <v>329</v>
@@ -9033,11 +9030,11 @@
       <c r="G84" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H84" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I84" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H84" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I84" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J84" s="31">
         <v>330</v>
@@ -9083,11 +9080,11 @@
       <c r="G85" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H85" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I85" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H85" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I85" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J85" s="31">
         <v>341</v>
@@ -9133,11 +9130,11 @@
       <c r="G86" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H86" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I86" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H86" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I86" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J86" s="31">
         <v>342</v>
@@ -9183,11 +9180,11 @@
       <c r="G87" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H87" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I87" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H87" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I87" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J87" s="31">
         <v>343</v>
@@ -9233,11 +9230,11 @@
       <c r="G88" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H88" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I88" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H88" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I88" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J88" s="31">
         <v>344</v>
@@ -9283,11 +9280,11 @@
       <c r="G89" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H89" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I89" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H89" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I89" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J89" s="31">
         <v>345</v>
@@ -9333,11 +9330,11 @@
       <c r="G90" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H90" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I90" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H90" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I90" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J90" s="31">
         <v>346</v>
@@ -9383,11 +9380,11 @@
       <c r="G91" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H91" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I91" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H91" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I91" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J91" s="31">
         <v>347</v>
@@ -9633,11 +9630,11 @@
       <c r="G96" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I96" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H96" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I96" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J96" s="31">
         <v>33</v>
@@ -9683,11 +9680,11 @@
       <c r="G97" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H97" s="27">
-        <v>26.147866666666602</v>
-      </c>
-      <c r="I97" s="27">
-        <v>-80.093863333333303</v>
+      <c r="H97" s="265">
+        <v>26.147580000000001</v>
+      </c>
+      <c r="I97" s="265">
+        <v>-80.096100000000007</v>
       </c>
       <c r="J97" s="31">
         <v>33</v>
@@ -10524,7 +10521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E1FCEF-5961-4A04-8C69-6FACD2CEBA96}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -16545,8 +16542,8 @@
         <v>356</v>
       </c>
       <c r="U3" s="159"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
     </row>
     <row r="4" spans="1:23" ht="16" thickBot="1">
       <c r="A4" s="124" t="s">
@@ -16604,8 +16601,8 @@
       <c r="U4" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="V4" s="262"/>
-      <c r="W4" s="262"/>
+      <c r="V4" s="259"/>
+      <c r="W4" s="259"/>
     </row>
     <row r="5" spans="1:23" ht="16" thickBot="1">
       <c r="A5" s="124" t="s">
@@ -16663,8 +16660,8 @@
       <c r="U5" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="V5" s="263"/>
-      <c r="W5" s="262"/>
+      <c r="V5" s="260"/>
+      <c r="W5" s="259"/>
     </row>
     <row r="6" spans="1:23" ht="16" thickBot="1">
       <c r="A6" s="124" t="s">
@@ -16783,8 +16780,8 @@
       <c r="U7" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="V7" s="263"/>
-      <c r="W7" s="262"/>
+      <c r="V7" s="260"/>
+      <c r="W7" s="259"/>
     </row>
     <row r="8" spans="1:23" ht="16" thickBot="1">
       <c r="A8" s="124" t="s">
@@ -16835,11 +16832,11 @@
       <c r="Q8" s="147">
         <v>8.25</v>
       </c>
-      <c r="S8" s="259"/>
-      <c r="T8" s="260"/>
+      <c r="S8" s="261"/>
+      <c r="T8" s="262"/>
       <c r="U8" s="164"/>
-      <c r="V8" s="260"/>
-      <c r="W8" s="260"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
     </row>
     <row r="9" spans="1:23" ht="16" thickBot="1">
       <c r="A9" s="124" t="s">
@@ -16866,11 +16863,11 @@
       <c r="Q9" s="150">
         <v>8.25</v>
       </c>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
+      <c r="S9" s="263"/>
+      <c r="T9" s="263"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
     </row>
     <row r="10" spans="1:23" ht="16" thickBot="1">
       <c r="A10" s="126" t="s">
@@ -16903,11 +16900,11 @@
       <c r="Q10" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="S10" s="262"/>
-      <c r="T10" s="262"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="259"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="262"/>
-      <c r="W10" s="262"/>
+      <c r="V10" s="259"/>
+      <c r="W10" s="259"/>
     </row>
     <row r="11" spans="1:23" ht="16" thickBot="1">
       <c r="A11" s="132"/>
@@ -16939,8 +16936,8 @@
       <c r="U11" s="119">
         <v>75</v>
       </c>
-      <c r="V11" s="262"/>
-      <c r="W11" s="262"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="259"/>
     </row>
     <row r="12" spans="1:23" ht="16" customHeight="1">
       <c r="A12" t="s">
@@ -17057,8 +17054,8 @@
         <v>356</v>
       </c>
       <c r="U14" s="159"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="261"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="263"/>
     </row>
     <row r="15" spans="1:23" ht="16" thickBot="1">
       <c r="A15" s="124" t="s">
@@ -17116,8 +17113,8 @@
       <c r="U15" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="V15" s="262"/>
-      <c r="W15" s="262"/>
+      <c r="V15" s="259"/>
+      <c r="W15" s="259"/>
     </row>
     <row r="16" spans="1:23" ht="16" thickBot="1">
       <c r="A16" s="124" t="s">
@@ -17175,8 +17172,8 @@
       <c r="U16" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="V16" s="263"/>
-      <c r="W16" s="262"/>
+      <c r="V16" s="260"/>
+      <c r="W16" s="259"/>
     </row>
     <row r="17" spans="1:23" ht="16" thickBot="1">
       <c r="A17" s="124" t="s">
@@ -17295,8 +17292,8 @@
       <c r="U18" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="V18" s="263"/>
-      <c r="W18" s="262"/>
+      <c r="V18" s="260"/>
+      <c r="W18" s="259"/>
     </row>
     <row r="19" spans="1:23" ht="16" thickBot="1">
       <c r="A19" s="124" t="s">
@@ -17347,11 +17344,11 @@
       <c r="Q19" s="147">
         <v>8.25</v>
       </c>
-      <c r="S19" s="259"/>
-      <c r="T19" s="260"/>
+      <c r="S19" s="261"/>
+      <c r="T19" s="262"/>
       <c r="U19" s="164"/>
-      <c r="V19" s="260"/>
-      <c r="W19" s="260"/>
+      <c r="V19" s="262"/>
+      <c r="W19" s="262"/>
     </row>
     <row r="20" spans="1:23" ht="16" thickBot="1">
       <c r="A20" s="126" t="s">
@@ -17378,11 +17375,11 @@
       <c r="Q20" s="150">
         <v>8.25</v>
       </c>
-      <c r="S20" s="261"/>
-      <c r="T20" s="261"/>
+      <c r="S20" s="263"/>
+      <c r="T20" s="263"/>
       <c r="U20" s="62"/>
-      <c r="V20" s="261"/>
-      <c r="W20" s="261"/>
+      <c r="V20" s="263"/>
+      <c r="W20" s="263"/>
     </row>
     <row r="21" spans="1:23" ht="16" thickBot="1">
       <c r="A21" s="136" t="s">
@@ -17415,11 +17412,11 @@
       <c r="Q21" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="S21" s="262"/>
-      <c r="T21" s="262"/>
+      <c r="S21" s="259"/>
+      <c r="T21" s="259"/>
       <c r="U21" s="62"/>
-      <c r="V21" s="262"/>
-      <c r="W21" s="262"/>
+      <c r="V21" s="259"/>
+      <c r="W21" s="259"/>
     </row>
     <row r="22" spans="1:23" ht="16" thickBot="1">
       <c r="A22" s="130"/>
@@ -17451,8 +17448,8 @@
       <c r="U22" s="119">
         <v>75</v>
       </c>
-      <c r="V22" s="262"/>
-      <c r="W22" s="262"/>
+      <c r="V22" s="259"/>
+      <c r="W22" s="259"/>
     </row>
     <row r="23" spans="1:23" ht="16" thickBot="1">
       <c r="A23" s="138" t="s">
@@ -17519,8 +17516,8 @@
         <v>356</v>
       </c>
       <c r="U24" s="159"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="261"/>
+      <c r="V24" s="263"/>
+      <c r="W24" s="263"/>
     </row>
     <row r="25" spans="1:23" ht="16" thickBot="1">
       <c r="A25" s="128" t="s">
@@ -17578,8 +17575,8 @@
       <c r="U25" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="V25" s="262"/>
-      <c r="W25" s="262"/>
+      <c r="V25" s="259"/>
+      <c r="W25" s="259"/>
     </row>
     <row r="26" spans="1:23" ht="16" thickBot="1">
       <c r="A26" s="124" t="s">
@@ -17637,8 +17634,8 @@
       <c r="U26" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="V26" s="263"/>
-      <c r="W26" s="262"/>
+      <c r="V26" s="260"/>
+      <c r="W26" s="259"/>
     </row>
     <row r="27" spans="1:23" ht="16" thickBot="1">
       <c r="A27" s="124" t="s">
@@ -17757,8 +17754,8 @@
       <c r="U28" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="V28" s="263"/>
-      <c r="W28" s="262"/>
+      <c r="V28" s="260"/>
+      <c r="W28" s="259"/>
     </row>
     <row r="29" spans="1:23" ht="16" thickBot="1">
       <c r="A29" s="124" t="s">
@@ -17801,11 +17798,11 @@
       <c r="Q29" s="147">
         <v>39.270000000000003</v>
       </c>
-      <c r="S29" s="259"/>
-      <c r="T29" s="260"/>
+      <c r="S29" s="261"/>
+      <c r="T29" s="262"/>
       <c r="U29" s="164"/>
-      <c r="V29" s="260"/>
-      <c r="W29" s="260"/>
+      <c r="V29" s="262"/>
+      <c r="W29" s="262"/>
     </row>
     <row r="30" spans="1:23" ht="16" thickBot="1">
       <c r="A30" s="124" t="s">
@@ -17832,11 +17829,11 @@
       <c r="Q30" s="147">
         <v>5.61</v>
       </c>
-      <c r="S30" s="261"/>
-      <c r="T30" s="261"/>
+      <c r="S30" s="263"/>
+      <c r="T30" s="263"/>
       <c r="U30" s="62"/>
-      <c r="V30" s="261"/>
-      <c r="W30" s="261"/>
+      <c r="V30" s="263"/>
+      <c r="W30" s="263"/>
     </row>
     <row r="31" spans="1:23" ht="16" thickBot="1">
       <c r="A31" s="124" t="s">
@@ -17863,11 +17860,11 @@
       <c r="Q31" s="150">
         <v>5.61</v>
       </c>
-      <c r="S31" s="262"/>
-      <c r="T31" s="262"/>
+      <c r="S31" s="259"/>
+      <c r="T31" s="259"/>
       <c r="U31" s="62"/>
-      <c r="V31" s="262"/>
-      <c r="W31" s="262"/>
+      <c r="V31" s="259"/>
+      <c r="W31" s="259"/>
     </row>
     <row r="32" spans="1:23" ht="16" thickBot="1">
       <c r="A32" s="124" t="s">
@@ -17907,8 +17904,8 @@
       <c r="U32" s="119">
         <v>51</v>
       </c>
-      <c r="V32" s="262"/>
-      <c r="W32" s="262"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="259"/>
     </row>
     <row r="33" spans="15:17" ht="16" thickBot="1">
       <c r="O33" s="154" t="s">
@@ -17923,14 +17920,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="V16:W16"/>
@@ -17944,18 +17945,14 @@
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="V25:W25"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V31:W31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20925,8 +20922,8 @@
       <c r="Q10" s="62"/>
     </row>
     <row r="11" spans="1:19" ht="16" thickBot="1">
-      <c r="A11" s="262"/>
-      <c r="B11" s="262"/>
+      <c r="A11" s="259"/>
+      <c r="B11" s="259"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -21032,8 +21029,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5">
-      <c r="A14" s="262"/>
-      <c r="B14" s="262"/>
+      <c r="A14" s="259"/>
+      <c r="B14" s="259"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -21057,8 +21054,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.5">
-      <c r="A15" s="262"/>
-      <c r="B15" s="262"/>
+      <c r="A15" s="259"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -21082,8 +21079,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5">
-      <c r="A16" s="262"/>
-      <c r="B16" s="262"/>
+      <c r="A16" s="259"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -21107,8 +21104,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.5">
-      <c r="A17" s="262"/>
-      <c r="B17" s="262"/>
+      <c r="A17" s="259"/>
+      <c r="B17" s="259"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -21132,8 +21129,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.5">
-      <c r="A18" s="262"/>
-      <c r="B18" s="262"/>
+      <c r="A18" s="259"/>
+      <c r="B18" s="259"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
@@ -21157,8 +21154,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1">
-      <c r="A19" s="262"/>
-      <c r="B19" s="262"/>
+      <c r="A19" s="259"/>
+      <c r="B19" s="259"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -21182,8 +21179,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1">
-      <c r="A20" s="262"/>
-      <c r="B20" s="262"/>
+      <c r="A20" s="259"/>
+      <c r="B20" s="259"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -21207,8 +21204,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.5">
-      <c r="A21" s="262"/>
-      <c r="B21" s="262"/>
+      <c r="A21" s="259"/>
+      <c r="B21" s="259"/>
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
@@ -21226,8 +21223,8 @@
       <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="1:17" ht="42">
-      <c r="A22" s="262"/>
-      <c r="B22" s="262"/>
+      <c r="A22" s="259"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -21249,8 +21246,8 @@
       <c r="Q22" s="62"/>
     </row>
     <row r="23" spans="1:17" ht="28">
-      <c r="A23" s="262"/>
-      <c r="B23" s="262"/>
+      <c r="A23" s="259"/>
+      <c r="B23" s="259"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -21274,8 +21271,8 @@
       <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="1:17" ht="15.5">
-      <c r="A24" s="262"/>
-      <c r="B24" s="262"/>
+      <c r="A24" s="259"/>
+      <c r="B24" s="259"/>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
@@ -21294,12 +21291,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="J23:N23"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
@@ -21307,6 +21298,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/data_files/Master_Sample_List.xlsx
+++ b/data_files/Master_Sample_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erin_\Documents\GitHub\SEFL_Pastreoides_2bRAD\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16962AD1-04F7-4C56-A700-1D0267E3EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CF952F-1CBF-49F0-8518-16E9C659D763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{434D8A9B-0D0B-4ABF-AC04-A196659A4FA6}"/>
   </bookViews>
@@ -848,9 +848,6 @@
     <t>Broward</t>
   </si>
   <si>
-    <t>Pompano/LBTS</t>
-  </si>
-  <si>
     <t>BC1</t>
   </si>
   <si>
@@ -2464,6 +2461,9 @@
   </si>
   <si>
     <t>P077-1</t>
+  </si>
+  <si>
+    <t>Ft. Lauderdale</t>
   </si>
 </sst>
 </file>
@@ -4178,18 +4178,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4825,7 +4825,7 @@
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="14.5"/>
@@ -6287,7 +6287,7 @@
         <v>90</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M29" s="31">
         <v>46</v>
@@ -7187,7 +7187,7 @@
         <v>175</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M47" s="31">
         <v>10</v>
@@ -8669,28 +8669,28 @@
         <v>44257</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H77" s="265">
+      <c r="H77" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I77" s="265">
+      <c r="I77" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J77" s="31">
         <v>32</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L77" s="26" t="s">
         <v>218</v>
@@ -8719,31 +8719,31 @@
         <v>44257</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H78" s="265">
+      <c r="H78" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I78" s="265">
+      <c r="I78" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J78" s="31">
         <v>33</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L78" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M78" s="31">
         <v>22</v>
@@ -8769,28 +8769,28 @@
         <v>44257</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H79" s="265">
+      <c r="H79" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I79" s="265">
+      <c r="I79" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J79" s="31">
         <v>34</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L79" s="26" t="s">
         <v>220</v>
@@ -8819,28 +8819,28 @@
         <v>44257</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H80" s="265">
+      <c r="H80" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I80" s="265">
+      <c r="I80" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J80" s="31">
         <v>35</v>
       </c>
       <c r="K80" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L80" s="26" t="s">
         <v>221</v>
@@ -8869,28 +8869,28 @@
         <v>44257</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H81" s="265">
+      <c r="H81" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I81" s="265">
+      <c r="I81" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J81" s="31">
         <v>327</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L81" s="26" t="s">
         <v>222</v>
@@ -8919,28 +8919,28 @@
         <v>44257</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F82" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H82" s="265">
+      <c r="H82" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I82" s="265">
+      <c r="I82" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J82" s="31">
         <v>328</v>
       </c>
       <c r="K82" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L82" s="26" t="s">
         <v>223</v>
@@ -8969,28 +8969,28 @@
         <v>44257</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H83" s="265">
+      <c r="H83" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I83" s="265">
+      <c r="I83" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J83" s="31">
         <v>329</v>
       </c>
       <c r="K83" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L83" s="26" t="s">
         <v>224</v>
@@ -9019,28 +9019,28 @@
         <v>44257</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H84" s="265">
+      <c r="H84" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I84" s="265">
+      <c r="I84" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J84" s="31">
         <v>330</v>
       </c>
       <c r="K84" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L84" s="26" t="s">
         <v>225</v>
@@ -9069,28 +9069,28 @@
         <v>44257</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H85" s="265">
+      <c r="H85" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I85" s="265">
+      <c r="I85" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J85" s="31">
         <v>341</v>
       </c>
       <c r="K85" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L85" s="26" t="s">
         <v>226</v>
@@ -9119,28 +9119,28 @@
         <v>44257</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F86" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H86" s="265">
+      <c r="H86" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I86" s="265">
+      <c r="I86" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J86" s="31">
         <v>342</v>
       </c>
       <c r="K86" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L86" s="26" t="s">
         <v>227</v>
@@ -9169,28 +9169,28 @@
         <v>44257</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F87" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H87" s="265">
+      <c r="H87" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I87" s="265">
+      <c r="I87" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J87" s="31">
         <v>343</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L87" s="26" t="s">
         <v>228</v>
@@ -9219,28 +9219,28 @@
         <v>44257</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H88" s="265">
+      <c r="H88" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I88" s="265">
+      <c r="I88" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J88" s="31">
         <v>344</v>
       </c>
       <c r="K88" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L88" s="26" t="s">
         <v>229</v>
@@ -9269,28 +9269,28 @@
         <v>44257</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H89" s="265">
+      <c r="H89" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I89" s="265">
+      <c r="I89" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J89" s="31">
         <v>345</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L89" s="26" t="s">
         <v>230</v>
@@ -9319,28 +9319,28 @@
         <v>44257</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F90" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H90" s="265">
+      <c r="H90" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I90" s="265">
+      <c r="I90" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J90" s="31">
         <v>346</v>
       </c>
       <c r="K90" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L90" s="26" t="s">
         <v>231</v>
@@ -9369,28 +9369,28 @@
         <v>44257</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F91" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H91" s="265">
+      <c r="H91" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I91" s="265">
+      <c r="I91" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J91" s="31">
         <v>347</v>
       </c>
       <c r="K91" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L91" s="26" t="s">
         <v>232</v>
@@ -9443,7 +9443,7 @@
         <v>90</v>
       </c>
       <c r="L92" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M92" s="31">
         <v>46</v>
@@ -9493,7 +9493,7 @@
         <v>90</v>
       </c>
       <c r="L93" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M93" s="31">
         <v>46</v>
@@ -9543,7 +9543,7 @@
         <v>175</v>
       </c>
       <c r="L94" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M94" s="31">
         <v>10</v>
@@ -9593,7 +9593,7 @@
         <v>175</v>
       </c>
       <c r="L95" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M95" s="31">
         <v>10</v>
@@ -9619,31 +9619,31 @@
         <v>44257</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H96" s="265">
+      <c r="H96" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I96" s="265">
+      <c r="I96" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J96" s="31">
         <v>33</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L96" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M96" s="31">
         <v>22</v>
@@ -9669,31 +9669,31 @@
         <v>44257</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H97" s="265">
+      <c r="H97" s="257">
         <v>26.147580000000001</v>
       </c>
-      <c r="I97" s="265">
+      <c r="I97" s="257">
         <v>-80.096100000000007</v>
       </c>
       <c r="J97" s="31">
         <v>33</v>
       </c>
       <c r="K97" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L97" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M97" s="31">
         <v>22</v>
@@ -9837,7 +9837,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.5">
       <c r="A1" s="166" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.5">
       <c r="A2" s="166" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" s="166"/>
       <c r="C2" s="166"/>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.5">
       <c r="A3" s="166" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" s="166"/>
       <c r="C3" s="166"/>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.5">
       <c r="A5" s="107" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B5" s="166"/>
       <c r="C5" s="166"/>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.5">
       <c r="A6" s="120" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6" s="166"/>
       <c r="C6" s="166"/>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="B7" s="166"/>
       <c r="C7" s="120" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D7" s="118"/>
     </row>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.5">
       <c r="A9" s="107" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.5">
       <c r="A10" s="120" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B10" s="120" t="s">
         <v>211</v>
@@ -9954,214 +9954,214 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="C1" s="107" t="s">
         <v>478</v>
-      </c>
-      <c r="C1" s="107" t="s">
-        <v>479</v>
       </c>
       <c r="D1" s="107"/>
       <c r="E1" s="107" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F1" s="166"/>
       <c r="G1" s="107" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D2" s="166"/>
       <c r="E2" s="166" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="166" t="s">
         <v>483</v>
       </c>
-      <c r="F2" s="166" t="s">
-        <v>484</v>
-      </c>
       <c r="G2" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H2" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B3" s="166" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C3" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D3" s="166"/>
       <c r="E3" s="166" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" s="166" t="s">
         <v>486</v>
       </c>
-      <c r="F3" s="166" t="s">
-        <v>487</v>
-      </c>
       <c r="G3" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H3" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H3" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="166" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B4" s="166" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D4" s="166"/>
       <c r="E4" s="166" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" s="166" t="s">
         <v>489</v>
       </c>
-      <c r="F4" s="166" t="s">
-        <v>490</v>
-      </c>
       <c r="G4" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H4" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H4" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B5" s="166" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D5" s="166"/>
       <c r="E5" s="166" t="s">
+        <v>491</v>
+      </c>
+      <c r="F5" s="166" t="s">
         <v>492</v>
       </c>
-      <c r="F5" s="166" t="s">
-        <v>493</v>
-      </c>
       <c r="G5" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H5" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H5" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="166" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6" s="166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C6" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D6" s="166"/>
       <c r="E6" s="166" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" s="166" t="s">
         <v>495</v>
       </c>
-      <c r="F6" s="166" t="s">
-        <v>496</v>
-      </c>
       <c r="G6" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H6" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H6" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5">
       <c r="A7" s="166" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B7" s="166" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C7" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" s="166"/>
       <c r="E7" s="166" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" s="166" t="s">
         <v>498</v>
       </c>
-      <c r="F7" s="166" t="s">
-        <v>499</v>
-      </c>
       <c r="G7" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H7" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H7" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5">
       <c r="A8" s="166" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8" s="166" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C8" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D8" s="166"/>
       <c r="E8" s="166" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" s="166" t="s">
         <v>501</v>
       </c>
-      <c r="F8" s="166" t="s">
-        <v>502</v>
-      </c>
       <c r="G8" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="H8" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H8" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5">
       <c r="A9" s="166" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B9" s="166" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C9" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D9" s="166"/>
       <c r="E9" s="166" t="s">
+        <v>503</v>
+      </c>
+      <c r="F9" s="166" t="s">
         <v>504</v>
       </c>
-      <c r="F9" s="166" t="s">
+      <c r="G9" s="226" t="s">
         <v>505</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="H9" s="226" t="s">
         <v>506</v>
-      </c>
-      <c r="H9" s="226" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -10188,327 +10188,327 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16">
       <c r="A1" s="227" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="227" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="227" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="227" t="s">
+      <c r="D1" s="227" t="s">
         <v>509</v>
-      </c>
-      <c r="D1" s="227" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" s="228" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="228" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="229" t="s">
         <v>511</v>
-      </c>
-      <c r="C2" s="229" t="s">
-        <v>512</v>
       </c>
       <c r="D2" s="227"/>
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="228" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="228" t="s">
         <v>513</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="C3" s="229" t="s">
         <v>514</v>
-      </c>
-      <c r="C3" s="229" t="s">
-        <v>515</v>
       </c>
       <c r="D3" s="227"/>
     </row>
     <row r="4" spans="1:4" ht="16">
       <c r="A4" s="228" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" s="228" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="228" t="s">
+      <c r="C4" s="230" t="s">
         <v>517</v>
-      </c>
-      <c r="C4" s="230" t="s">
-        <v>518</v>
       </c>
       <c r="D4" s="227"/>
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5" s="231" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="228" t="s">
         <v>519</v>
       </c>
-      <c r="B5" s="228" t="s">
-        <v>520</v>
-      </c>
       <c r="C5" s="230" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D5" s="227"/>
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="228" t="s">
         <v>521</v>
       </c>
-      <c r="B6" s="228" t="s">
+      <c r="C6" s="230" t="s">
         <v>522</v>
-      </c>
-      <c r="C6" s="230" t="s">
-        <v>523</v>
       </c>
       <c r="D6" s="227"/>
     </row>
     <row r="7" spans="1:4" ht="16">
       <c r="A7" s="228" t="s">
+        <v>523</v>
+      </c>
+      <c r="B7" s="228" t="s">
         <v>524</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="C7" s="230" t="s">
         <v>525</v>
-      </c>
-      <c r="C7" s="230" t="s">
-        <v>526</v>
       </c>
       <c r="D7" s="227"/>
     </row>
     <row r="8" spans="1:4" ht="16">
       <c r="A8" s="228" t="s">
+        <v>526</v>
+      </c>
+      <c r="B8" s="228" t="s">
         <v>527</v>
       </c>
-      <c r="B8" s="228" t="s">
-        <v>528</v>
-      </c>
       <c r="C8" s="230" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D8" s="227"/>
     </row>
     <row r="9" spans="1:4" ht="16">
       <c r="A9" s="228" t="s">
+        <v>528</v>
+      </c>
+      <c r="B9" s="228" t="s">
         <v>529</v>
       </c>
-      <c r="B9" s="228" t="s">
-        <v>530</v>
-      </c>
       <c r="C9" s="230" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D9" s="227"/>
     </row>
     <row r="10" spans="1:4" ht="16">
       <c r="A10" s="228" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" s="228" t="s">
         <v>531</v>
       </c>
-      <c r="B10" s="228" t="s">
-        <v>532</v>
-      </c>
       <c r="C10" s="230" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D10" s="227"/>
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" s="228" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" s="228" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="228" t="s">
-        <v>534</v>
-      </c>
       <c r="C11" s="230" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D11" s="227"/>
     </row>
     <row r="12" spans="1:4" ht="16">
       <c r="A12" s="228" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="228" t="s">
         <v>535</v>
       </c>
-      <c r="B12" s="228" t="s">
-        <v>536</v>
-      </c>
       <c r="C12" s="230" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D12" s="227"/>
     </row>
     <row r="13" spans="1:4" ht="16">
       <c r="A13" s="228" t="s">
+        <v>536</v>
+      </c>
+      <c r="B13" s="228" t="s">
         <v>537</v>
       </c>
-      <c r="B13" s="228" t="s">
-        <v>538</v>
-      </c>
       <c r="C13" s="230" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D13" s="227"/>
     </row>
     <row r="14" spans="1:4" ht="16">
       <c r="A14" s="228" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="228" t="s">
         <v>539</v>
       </c>
-      <c r="B14" s="228" t="s">
-        <v>540</v>
-      </c>
       <c r="C14" s="230" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D14" s="227"/>
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="228" t="s">
+        <v>540</v>
+      </c>
+      <c r="B15" s="228" t="s">
         <v>541</v>
       </c>
-      <c r="B15" s="228" t="s">
-        <v>542</v>
-      </c>
       <c r="C15" s="230" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D15" s="227"/>
     </row>
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="228" t="s">
+        <v>542</v>
+      </c>
+      <c r="B16" s="228" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="228" t="s">
+      <c r="C16" s="230" t="s">
         <v>544</v>
-      </c>
-      <c r="C16" s="230" t="s">
-        <v>545</v>
       </c>
       <c r="D16" s="227"/>
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" s="228" t="s">
+        <v>545</v>
+      </c>
+      <c r="B17" s="228" t="s">
         <v>546</v>
       </c>
-      <c r="B17" s="228" t="s">
+      <c r="C17" s="230" t="s">
         <v>547</v>
-      </c>
-      <c r="C17" s="230" t="s">
-        <v>548</v>
       </c>
       <c r="D17" s="227"/>
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" s="228" t="s">
+        <v>548</v>
+      </c>
+      <c r="B18" s="228" t="s">
         <v>549</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="C18" s="230" t="s">
         <v>550</v>
-      </c>
-      <c r="C18" s="230" t="s">
-        <v>551</v>
       </c>
       <c r="D18" s="227"/>
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" s="228" t="s">
+        <v>551</v>
+      </c>
+      <c r="B19" s="228" t="s">
         <v>552</v>
       </c>
-      <c r="B19" s="228" t="s">
+      <c r="C19" s="230" t="s">
         <v>553</v>
-      </c>
-      <c r="C19" s="230" t="s">
-        <v>554</v>
       </c>
       <c r="D19" s="227"/>
     </row>
     <row r="20" spans="1:4" ht="16">
       <c r="A20" s="228" t="s">
+        <v>554</v>
+      </c>
+      <c r="B20" s="228" t="s">
         <v>555</v>
       </c>
-      <c r="B20" s="228" t="s">
+      <c r="C20" s="230" t="s">
         <v>556</v>
-      </c>
-      <c r="C20" s="230" t="s">
-        <v>557</v>
       </c>
       <c r="D20" s="227"/>
     </row>
     <row r="21" spans="1:4" ht="16">
       <c r="A21" s="228" t="s">
+        <v>557</v>
+      </c>
+      <c r="B21" s="228" t="s">
         <v>558</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="C21" s="230" t="s">
         <v>559</v>
-      </c>
-      <c r="C21" s="230" t="s">
-        <v>560</v>
       </c>
       <c r="D21" s="227"/>
     </row>
     <row r="22" spans="1:4" ht="16">
       <c r="A22" s="228" t="s">
+        <v>560</v>
+      </c>
+      <c r="B22" s="228" t="s">
         <v>561</v>
       </c>
-      <c r="B22" s="228" t="s">
+      <c r="C22" s="230" t="s">
         <v>562</v>
-      </c>
-      <c r="C22" s="230" t="s">
-        <v>563</v>
       </c>
       <c r="D22" s="227"/>
     </row>
     <row r="23" spans="1:4" ht="16">
       <c r="A23" s="228" t="s">
+        <v>563</v>
+      </c>
+      <c r="B23" s="228" t="s">
         <v>564</v>
       </c>
-      <c r="B23" s="228" t="s">
+      <c r="C23" s="230" t="s">
         <v>565</v>
-      </c>
-      <c r="C23" s="230" t="s">
-        <v>566</v>
       </c>
       <c r="D23" s="227"/>
     </row>
     <row r="24" spans="1:4" ht="16">
       <c r="A24" s="228" t="s">
+        <v>566</v>
+      </c>
+      <c r="B24" s="228" t="s">
         <v>567</v>
       </c>
-      <c r="B24" s="228" t="s">
+      <c r="C24" s="230" t="s">
         <v>568</v>
-      </c>
-      <c r="C24" s="230" t="s">
-        <v>569</v>
       </c>
       <c r="D24" s="227"/>
     </row>
     <row r="25" spans="1:4" ht="16">
       <c r="A25" s="228" t="s">
+        <v>569</v>
+      </c>
+      <c r="B25" s="228" t="s">
         <v>570</v>
       </c>
-      <c r="B25" s="228" t="s">
+      <c r="C25" s="230" t="s">
         <v>571</v>
-      </c>
-      <c r="C25" s="230" t="s">
-        <v>572</v>
       </c>
       <c r="D25" s="227"/>
     </row>
     <row r="26" spans="1:4" ht="16">
       <c r="A26" s="228" t="s">
+        <v>572</v>
+      </c>
+      <c r="B26" s="228" t="s">
         <v>573</v>
       </c>
-      <c r="B26" s="228" t="s">
+      <c r="C26" s="230" t="s">
         <v>574</v>
-      </c>
-      <c r="C26" s="230" t="s">
-        <v>575</v>
       </c>
       <c r="D26" s="227"/>
     </row>
     <row r="27" spans="1:4" ht="16">
       <c r="A27" s="228" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="228" t="s">
         <v>576</v>
       </c>
-      <c r="B27" s="228" t="s">
+      <c r="C27" s="230" t="s">
         <v>577</v>
-      </c>
-      <c r="C27" s="230" t="s">
-        <v>578</v>
       </c>
       <c r="D27" s="227"/>
     </row>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -14628,7 +14628,7 @@
     <row r="1" spans="1:13" ht="15.5">
       <c r="A1" s="51"/>
       <c r="B1" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
@@ -14683,7 +14683,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.5">
       <c r="A3" s="90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>17</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.5">
       <c r="A4" s="90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>18</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.5">
       <c r="A5" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>19</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.5">
       <c r="A6" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>20</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.5">
       <c r="A7" s="90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>21</v>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.5">
       <c r="A8" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="56" t="s">
         <v>22</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.5">
       <c r="A9" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>23</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="10" spans="1:13" ht="16" thickBot="1">
       <c r="A10" s="90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>24</v>
@@ -14998,8 +14998,8 @@
       <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13" ht="15.5">
-      <c r="A11" s="257"/>
-      <c r="B11" s="257"/>
+      <c r="A11" s="258"/>
+      <c r="B11" s="258"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -15015,7 +15015,7 @@
     <row r="12" spans="1:13" ht="15.5">
       <c r="A12" s="51"/>
       <c r="B12" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
@@ -15070,16 +15070,16 @@
     </row>
     <row r="14" spans="1:13" ht="15.5">
       <c r="A14" s="90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="64">
         <v>16.644295302013422</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="64">
         <v>16.732026143790851</v>
@@ -15088,7 +15088,7 @@
         <v>16.376811594202898</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H14" s="64">
         <v>16.969696969696969</v>
@@ -15111,10 +15111,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.5">
       <c r="A15" s="90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="67">
         <v>17.076023391812864</v>
@@ -15129,7 +15129,7 @@
         <v>17.191011235955056</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H15" s="67">
         <v>17.487437185929647</v>
@@ -15152,16 +15152,16 @@
     </row>
     <row r="16" spans="1:13" ht="15.5">
       <c r="A16" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="67">
         <v>17.023809523809526</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" s="67">
         <v>17.448979591836736</v>
@@ -15191,16 +15191,16 @@
     </row>
     <row r="17" spans="1:13" ht="15.5">
       <c r="A17" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="67">
         <v>16.710526315789473</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E17" s="67">
         <v>17.093023255813954</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.5">
       <c r="A18" s="90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" s="66">
         <v>17.206703910614525</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.5">
       <c r="A19" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" s="66">
         <v>17.237569060773481</v>
@@ -15308,7 +15308,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.5">
       <c r="A20" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="66">
         <v>15.901639344262296</v>
@@ -15323,7 +15323,7 @@
         <v>16.551724137931036</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G20" s="67">
         <v>16.575342465753426</v>
@@ -15347,13 +15347,13 @@
     </row>
     <row r="21" spans="1:13" ht="16" thickBot="1">
       <c r="A21" s="90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="69">
         <v>16.774193548387096</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" s="70">
         <v>17.282608695652172</v>
@@ -15362,7 +15362,7 @@
         <v>17.191011235955056</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G21" s="70">
         <v>18.655913978494624</v>
@@ -15385,8 +15385,8 @@
       <c r="M21" s="71"/>
     </row>
     <row r="22" spans="1:13" ht="15.5">
-      <c r="A22" s="258"/>
-      <c r="B22" s="258"/>
+      <c r="A22" s="259"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
@@ -15402,7 +15402,7 @@
     <row r="23" spans="1:13" ht="15.5">
       <c r="A23" s="51"/>
       <c r="B23" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -15457,16 +15457,16 @@
     </row>
     <row r="25" spans="1:13" ht="15.5">
       <c r="A25" s="90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="77">
         <v>3.3557046979865772</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="77">
         <v>3.2679738562091503</v>
@@ -15475,7 +15475,7 @@
         <v>3.6231884057971016</v>
       </c>
       <c r="G25" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H25" s="77">
         <v>3.0303030303030303</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="26" spans="1:13" ht="15.5">
       <c r="A26" s="90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="80">
         <v>2.9239766081871346</v>
@@ -15516,7 +15516,7 @@
         <v>2.808988764044944</v>
       </c>
       <c r="G26" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H26" s="80">
         <v>2.512562814070352</v>
@@ -15539,16 +15539,16 @@
     </row>
     <row r="27" spans="1:13" ht="15.5">
       <c r="A27" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="80">
         <v>2.9761904761904763</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E27" s="80">
         <v>2.5510204081632653</v>
@@ -15578,16 +15578,16 @@
     </row>
     <row r="28" spans="1:13" ht="15.5">
       <c r="A28" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B28" s="89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="80">
         <v>3.2894736842105261</v>
       </c>
       <c r="D28" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E28" s="80">
         <v>2.9069767441860463</v>
@@ -15617,7 +15617,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.5">
       <c r="A29" s="90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="79">
         <v>2.7932960893854748</v>
@@ -15656,7 +15656,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.5">
       <c r="A30" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="79">
         <v>2.7624309392265194</v>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.5">
       <c r="A31" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="79">
         <v>4.0983606557377046</v>
@@ -15710,7 +15710,7 @@
         <v>3.4482758620689653</v>
       </c>
       <c r="F31" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G31" s="80">
         <v>3.4246575342465753</v>
@@ -15734,13 +15734,13 @@
     </row>
     <row r="32" spans="1:13" ht="16" thickBot="1">
       <c r="A32" s="90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="82">
         <v>3.225806451612903</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" s="83">
         <v>2.7173913043478262</v>
@@ -15749,7 +15749,7 @@
         <v>2.808988764044944</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G32" s="83">
         <v>1.3440860215053763</v>
@@ -15805,49 +15805,49 @@
     <row r="1" spans="1:22" ht="16" thickBot="1">
       <c r="A1" s="117"/>
       <c r="B1" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="D1" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="E1" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="F1" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="G1" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="H1" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="I1" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="J1" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="K1" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="L1" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="M1" s="107" t="s">
         <v>315</v>
-      </c>
-      <c r="M1" s="107" t="s">
-        <v>316</v>
       </c>
       <c r="N1" s="62"/>
       <c r="P1" s="92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="94"/>
       <c r="R1" s="94"/>
       <c r="T1" s="92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U1" s="94"/>
       <c r="V1" s="94"/>
@@ -15892,27 +15892,27 @@
       </c>
       <c r="N2" s="119"/>
       <c r="P2" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="Q2" s="96" t="s">
+      <c r="R2" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="R2" s="97" t="s">
-        <v>284</v>
-      </c>
       <c r="T2" s="95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U2" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="V2" s="97" t="s">
         <v>283</v>
-      </c>
-      <c r="V2" s="97" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.5">
       <c r="A3" s="120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>17</v>
@@ -15951,10 +15951,10 @@
         <v>231</v>
       </c>
       <c r="N3" s="107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P3" s="98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q3" s="99">
         <v>0.5</v>
@@ -15963,7 +15963,7 @@
         <v>60</v>
       </c>
       <c r="T3" s="98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U3" s="99">
         <v>0.5</v>
@@ -15974,7 +15974,7 @@
     </row>
     <row r="4" spans="1:22" ht="16" thickBot="1">
       <c r="A4" s="120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>18</v>
@@ -16013,10 +16013,10 @@
         <v>232</v>
       </c>
       <c r="N4" s="107" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P4" s="101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="102">
         <v>0.5</v>
@@ -16025,7 +16025,7 @@
         <v>60</v>
       </c>
       <c r="T4" s="101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U4" s="102">
         <v>0.5</v>
@@ -16036,7 +16036,7 @@
     </row>
     <row r="5" spans="1:22" ht="16" thickBot="1">
       <c r="A5" s="120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>19</v>
@@ -16075,10 +16075,10 @@
         <v>47</v>
       </c>
       <c r="N5" s="107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P5" s="104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="105">
         <v>1</v>
@@ -16087,7 +16087,7 @@
         <v>120</v>
       </c>
       <c r="T5" s="104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U5" s="105">
         <v>1</v>
@@ -16098,7 +16098,7 @@
     </row>
     <row r="6" spans="1:22" ht="15.5">
       <c r="A6" s="120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>20</v>
@@ -16137,17 +16137,17 @@
         <v>47</v>
       </c>
       <c r="N6" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T6" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U6" s="62"/>
       <c r="V6" s="94"/>
     </row>
     <row r="7" spans="1:22" ht="15.5">
       <c r="A7" s="120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>21</v>
@@ -16186,12 +16186,12 @@
         <v>145</v>
       </c>
       <c r="N7" s="107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.5">
       <c r="A8" s="120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="56" t="s">
         <v>22</v>
@@ -16230,12 +16230,12 @@
         <v>145</v>
       </c>
       <c r="N8" s="107" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16" thickBot="1">
       <c r="A9" s="120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>23</v>
@@ -16274,20 +16274,20 @@
         <v>219</v>
       </c>
       <c r="N9" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P9" s="92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="94"/>
       <c r="S9" s="92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T9" s="94"/>
     </row>
     <row r="10" spans="1:22" ht="22.5" thickBot="1">
       <c r="A10" s="120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>24</v>
@@ -16326,30 +16326,30 @@
         <v>219</v>
       </c>
       <c r="N10" s="107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P10" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q10" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="Q10" s="122" t="s">
-        <v>295</v>
-      </c>
       <c r="S10" s="95" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T10" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="P11" s="108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="109">
         <v>35.200000000000003</v>
       </c>
       <c r="S11" s="108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T11" s="109">
         <v>15</v>
@@ -16357,13 +16357,13 @@
     </row>
     <row r="12" spans="1:22" ht="42.5">
       <c r="P12" s="110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="111">
         <v>8.8000000000000007</v>
       </c>
       <c r="S12" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T12" s="111">
         <v>2</v>
@@ -16371,13 +16371,13 @@
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1">
       <c r="P13" s="112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="113">
         <v>132</v>
       </c>
       <c r="S13" s="110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T13" s="111">
         <v>1</v>
@@ -16385,13 +16385,13 @@
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1">
       <c r="P14" s="114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="115">
         <v>176</v>
       </c>
       <c r="S14" s="110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T14" s="111">
         <v>1</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="15" spans="1:22" ht="15" thickBot="1">
       <c r="S15" s="112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T15" s="113">
         <v>1</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="16" spans="1:22" ht="15" thickBot="1">
       <c r="S16" s="114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T16" s="115">
         <v>20</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="18" spans="16:16">
       <c r="P18" s="93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -16441,7 +16441,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" thickBot="1">
@@ -16483,14 +16483,14 @@
         <v>12</v>
       </c>
       <c r="O2" s="107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P2" s="62"/>
       <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="1:23" ht="16" thickBot="1">
       <c r="A3" s="124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>17</v>
@@ -16529,25 +16529,25 @@
         <v>231</v>
       </c>
       <c r="O3" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P3" s="140" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q3" s="141" t="s">
         <v>346</v>
-      </c>
-      <c r="Q3" s="141" t="s">
-        <v>347</v>
       </c>
       <c r="S3" s="157"/>
       <c r="T3" s="158" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U3" s="159"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
     </row>
     <row r="4" spans="1:23" ht="16" thickBot="1">
       <c r="A4" s="124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>17</v>
@@ -16586,7 +16586,7 @@
         <v>231</v>
       </c>
       <c r="O4" s="142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P4" s="143">
         <v>5.53</v>
@@ -16596,17 +16596,17 @@
       </c>
       <c r="S4" s="160"/>
       <c r="T4" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="U4" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="U4" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="V4" s="259"/>
-      <c r="W4" s="259"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
     </row>
     <row r="5" spans="1:23" ht="16" thickBot="1">
       <c r="A5" s="124" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>18</v>
@@ -16645,7 +16645,7 @@
         <v>232</v>
       </c>
       <c r="O5" s="145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P5" s="146">
         <v>7.5</v>
@@ -16655,17 +16655,17 @@
       </c>
       <c r="S5" s="160"/>
       <c r="T5" s="159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U5" s="161" t="s">
-        <v>359</v>
-      </c>
-      <c r="V5" s="260"/>
-      <c r="W5" s="259"/>
+        <v>358</v>
+      </c>
+      <c r="V5" s="264"/>
+      <c r="W5" s="263"/>
     </row>
     <row r="6" spans="1:23" ht="16" thickBot="1">
       <c r="A6" s="124" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>18</v>
@@ -16704,7 +16704,7 @@
         <v>232</v>
       </c>
       <c r="O6" s="145" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P6" s="146">
         <v>7.0000000000000007E-2</v>
@@ -16714,19 +16714,19 @@
       </c>
       <c r="S6" s="160"/>
       <c r="T6" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="U6" s="162" t="s">
         <v>360</v>
-      </c>
-      <c r="U6" s="162" t="s">
-        <v>361</v>
       </c>
       <c r="V6" s="62"/>
       <c r="W6" s="163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16" thickBot="1">
       <c r="A7" s="124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>19</v>
@@ -16765,7 +16765,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="145" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P7" s="146">
         <v>0.7</v>
@@ -16775,17 +16775,17 @@
       </c>
       <c r="S7" s="160"/>
       <c r="T7" s="164" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U7" s="165" t="s">
-        <v>361</v>
-      </c>
-      <c r="V7" s="260"/>
-      <c r="W7" s="259"/>
+        <v>360</v>
+      </c>
+      <c r="V7" s="264"/>
+      <c r="W7" s="263"/>
     </row>
     <row r="8" spans="1:23" ht="16" thickBot="1">
       <c r="A8" s="124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="56" t="s">
         <v>19</v>
@@ -16824,7 +16824,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="145" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P8" s="146">
         <v>0.1</v>
@@ -16832,15 +16832,15 @@
       <c r="Q8" s="147">
         <v>8.25</v>
       </c>
-      <c r="S8" s="261"/>
-      <c r="T8" s="262"/>
+      <c r="S8" s="260"/>
+      <c r="T8" s="261"/>
       <c r="U8" s="164"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
+      <c r="V8" s="261"/>
+      <c r="W8" s="261"/>
     </row>
     <row r="9" spans="1:23" ht="16" thickBot="1">
       <c r="A9" s="124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
@@ -16855,7 +16855,7 @@
       <c r="L9" s="125"/>
       <c r="M9" s="125"/>
       <c r="O9" s="148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P9" s="149">
         <v>0.1</v>
@@ -16863,24 +16863,24 @@
       <c r="Q9" s="150">
         <v>8.25</v>
       </c>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
+      <c r="S9" s="262"/>
+      <c r="T9" s="262"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
     </row>
     <row r="10" spans="1:23" ht="16" thickBot="1">
       <c r="A10" s="126" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D10" s="127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10" s="127"/>
       <c r="F10" s="127"/>
@@ -16892,19 +16892,19 @@
       <c r="L10" s="127"/>
       <c r="M10" s="127"/>
       <c r="O10" s="151" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P10" s="152">
         <v>1</v>
       </c>
       <c r="Q10" s="153" t="s">
-        <v>354</v>
-      </c>
-      <c r="S10" s="259"/>
-      <c r="T10" s="259"/>
+        <v>353</v>
+      </c>
+      <c r="S10" s="263"/>
+      <c r="T10" s="263"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="259"/>
-      <c r="W10" s="259"/>
+      <c r="V10" s="263"/>
+      <c r="W10" s="263"/>
     </row>
     <row r="11" spans="1:23" ht="16" thickBot="1">
       <c r="A11" s="132"/>
@@ -16921,7 +16921,7 @@
       <c r="L11" s="133"/>
       <c r="M11" s="133"/>
       <c r="O11" s="154" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P11" s="155">
         <v>15</v>
@@ -16931,17 +16931,17 @@
       </c>
       <c r="S11" s="62"/>
       <c r="T11" s="120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U11" s="119">
         <v>75</v>
       </c>
-      <c r="V11" s="259"/>
-      <c r="W11" s="259"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="263"/>
     </row>
     <row r="12" spans="1:23" ht="16" customHeight="1">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
@@ -16995,14 +16995,14 @@
         <v>12</v>
       </c>
       <c r="O13" s="107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
     </row>
     <row r="14" spans="1:23" ht="16" thickBot="1">
       <c r="A14" s="124" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" s="56" t="s">
         <v>20</v>
@@ -17041,25 +17041,25 @@
         <v>47</v>
       </c>
       <c r="O14" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P14" s="140" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q14" s="141" t="s">
         <v>346</v>
-      </c>
-      <c r="Q14" s="141" t="s">
-        <v>347</v>
       </c>
       <c r="S14" s="157"/>
       <c r="T14" s="158" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U14" s="159"/>
-      <c r="V14" s="263"/>
-      <c r="W14" s="263"/>
+      <c r="V14" s="262"/>
+      <c r="W14" s="262"/>
     </row>
     <row r="15" spans="1:23" ht="16" thickBot="1">
       <c r="A15" s="124" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>20</v>
@@ -17098,7 +17098,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P15" s="143">
         <v>5.53</v>
@@ -17108,17 +17108,17 @@
       </c>
       <c r="S15" s="160"/>
       <c r="T15" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="U15" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="U15" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="V15" s="259"/>
-      <c r="W15" s="259"/>
+      <c r="V15" s="263"/>
+      <c r="W15" s="263"/>
     </row>
     <row r="16" spans="1:23" ht="16" thickBot="1">
       <c r="A16" s="124" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>21</v>
@@ -17157,7 +17157,7 @@
         <v>145</v>
       </c>
       <c r="O16" s="145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P16" s="146">
         <v>7.5</v>
@@ -17167,17 +17167,17 @@
       </c>
       <c r="S16" s="160"/>
       <c r="T16" s="159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U16" s="161" t="s">
-        <v>359</v>
-      </c>
-      <c r="V16" s="260"/>
-      <c r="W16" s="259"/>
+        <v>358</v>
+      </c>
+      <c r="V16" s="264"/>
+      <c r="W16" s="263"/>
     </row>
     <row r="17" spans="1:23" ht="16" thickBot="1">
       <c r="A17" s="124" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>21</v>
@@ -17216,7 +17216,7 @@
         <v>145</v>
       </c>
       <c r="O17" s="145" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P17" s="146">
         <v>7.0000000000000007E-2</v>
@@ -17226,19 +17226,19 @@
       </c>
       <c r="S17" s="160"/>
       <c r="T17" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="U17" s="162" t="s">
         <v>360</v>
-      </c>
-      <c r="U17" s="162" t="s">
-        <v>361</v>
       </c>
       <c r="V17" s="62"/>
       <c r="W17" s="163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="16" thickBot="1">
       <c r="A18" s="124" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>22</v>
@@ -17277,7 +17277,7 @@
         <v>145</v>
       </c>
       <c r="O18" s="145" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P18" s="146">
         <v>0.7</v>
@@ -17287,17 +17287,17 @@
       </c>
       <c r="S18" s="160"/>
       <c r="T18" s="164" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U18" s="165" t="s">
-        <v>361</v>
-      </c>
-      <c r="V18" s="260"/>
-      <c r="W18" s="259"/>
+        <v>360</v>
+      </c>
+      <c r="V18" s="264"/>
+      <c r="W18" s="263"/>
     </row>
     <row r="19" spans="1:23" ht="16" thickBot="1">
       <c r="A19" s="124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>22</v>
@@ -17336,7 +17336,7 @@
         <v>145</v>
       </c>
       <c r="O19" s="145" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P19" s="146">
         <v>0.1</v>
@@ -17344,15 +17344,15 @@
       <c r="Q19" s="147">
         <v>8.25</v>
       </c>
-      <c r="S19" s="261"/>
-      <c r="T19" s="262"/>
+      <c r="S19" s="260"/>
+      <c r="T19" s="261"/>
       <c r="U19" s="164"/>
-      <c r="V19" s="262"/>
-      <c r="W19" s="262"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
     </row>
     <row r="20" spans="1:23" ht="16" thickBot="1">
       <c r="A20" s="126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="127"/>
       <c r="C20" s="127"/>
@@ -17367,7 +17367,7 @@
       <c r="L20" s="127"/>
       <c r="M20" s="127"/>
       <c r="O20" s="148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P20" s="149">
         <v>0.1</v>
@@ -17375,24 +17375,24 @@
       <c r="Q20" s="150">
         <v>8.25</v>
       </c>
-      <c r="S20" s="263"/>
-      <c r="T20" s="263"/>
+      <c r="S20" s="262"/>
+      <c r="T20" s="262"/>
       <c r="U20" s="62"/>
-      <c r="V20" s="263"/>
-      <c r="W20" s="263"/>
+      <c r="V20" s="262"/>
+      <c r="W20" s="262"/>
     </row>
     <row r="21" spans="1:23" ht="16" thickBot="1">
       <c r="A21" s="136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C21" s="137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D21" s="137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E21" s="137"/>
       <c r="F21" s="137"/>
@@ -17404,19 +17404,19 @@
       <c r="L21" s="137"/>
       <c r="M21" s="137"/>
       <c r="O21" s="151" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P21" s="152">
         <v>1</v>
       </c>
       <c r="Q21" s="153" t="s">
-        <v>354</v>
-      </c>
-      <c r="S21" s="259"/>
-      <c r="T21" s="259"/>
+        <v>353</v>
+      </c>
+      <c r="S21" s="263"/>
+      <c r="T21" s="263"/>
       <c r="U21" s="62"/>
-      <c r="V21" s="259"/>
-      <c r="W21" s="259"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="263"/>
     </row>
     <row r="22" spans="1:23" ht="16" thickBot="1">
       <c r="A22" s="130"/>
@@ -17433,7 +17433,7 @@
       <c r="L22" s="131"/>
       <c r="M22" s="131"/>
       <c r="O22" s="154" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P22" s="155">
         <v>15</v>
@@ -17443,17 +17443,17 @@
       </c>
       <c r="S22" s="62"/>
       <c r="T22" s="120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U22" s="119">
         <v>75</v>
       </c>
-      <c r="V22" s="259"/>
-      <c r="W22" s="259"/>
+      <c r="V22" s="263"/>
+      <c r="W22" s="263"/>
     </row>
     <row r="23" spans="1:23" ht="16" thickBot="1">
       <c r="A23" s="138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B23" s="131"/>
       <c r="C23" s="131"/>
@@ -17507,21 +17507,21 @@
         <v>12</v>
       </c>
       <c r="O24" s="107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
       <c r="S24" s="157"/>
       <c r="T24" s="158" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U24" s="159"/>
-      <c r="V24" s="263"/>
-      <c r="W24" s="263"/>
+      <c r="V24" s="262"/>
+      <c r="W24" s="262"/>
     </row>
     <row r="25" spans="1:23" ht="16" thickBot="1">
       <c r="A25" s="128" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B25" s="212" t="s">
         <v>23</v>
@@ -17560,27 +17560,27 @@
         <v>219</v>
       </c>
       <c r="O25" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P25" s="140" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="141" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S25" s="160"/>
       <c r="T25" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="U25" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="U25" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="V25" s="259"/>
-      <c r="W25" s="259"/>
+      <c r="V25" s="263"/>
+      <c r="W25" s="263"/>
     </row>
     <row r="26" spans="1:23" ht="16" thickBot="1">
       <c r="A26" s="124" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B26" s="212" t="s">
         <v>23</v>
@@ -17619,7 +17619,7 @@
         <v>219</v>
       </c>
       <c r="O26" s="142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P26" s="143">
         <v>5.53</v>
@@ -17629,17 +17629,17 @@
       </c>
       <c r="S26" s="160"/>
       <c r="T26" s="159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U26" s="161" t="s">
-        <v>359</v>
-      </c>
-      <c r="V26" s="260"/>
-      <c r="W26" s="259"/>
+        <v>358</v>
+      </c>
+      <c r="V26" s="264"/>
+      <c r="W26" s="263"/>
     </row>
     <row r="27" spans="1:23" ht="16" thickBot="1">
       <c r="A27" s="124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>24</v>
@@ -17678,7 +17678,7 @@
         <v>219</v>
       </c>
       <c r="O27" s="145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P27" s="146">
         <v>7.5</v>
@@ -17688,19 +17688,19 @@
       </c>
       <c r="S27" s="160"/>
       <c r="T27" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="U27" s="162" t="s">
         <v>360</v>
-      </c>
-      <c r="U27" s="162" t="s">
-        <v>361</v>
       </c>
       <c r="V27" s="62"/>
       <c r="W27" s="163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="16" thickBot="1">
       <c r="A28" s="124" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B28" s="59" t="s">
         <v>24</v>
@@ -17739,7 +17739,7 @@
         <v>219</v>
       </c>
       <c r="O28" s="145" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P28" s="146">
         <v>7.0000000000000007E-2</v>
@@ -17749,17 +17749,17 @@
       </c>
       <c r="S28" s="160"/>
       <c r="T28" s="164" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U28" s="165" t="s">
-        <v>361</v>
-      </c>
-      <c r="V28" s="260"/>
-      <c r="W28" s="259"/>
+        <v>360</v>
+      </c>
+      <c r="V28" s="264"/>
+      <c r="W28" s="263"/>
     </row>
     <row r="29" spans="1:23" ht="16" thickBot="1">
       <c r="A29" s="124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="214" t="s">
         <v>23</v>
@@ -17790,7 +17790,7 @@
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
       <c r="O29" s="145" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P29" s="146">
         <v>0.7</v>
@@ -17798,15 +17798,15 @@
       <c r="Q29" s="147">
         <v>39.270000000000003</v>
       </c>
-      <c r="S29" s="261"/>
-      <c r="T29" s="262"/>
+      <c r="S29" s="260"/>
+      <c r="T29" s="261"/>
       <c r="U29" s="164"/>
-      <c r="V29" s="262"/>
-      <c r="W29" s="262"/>
+      <c r="V29" s="261"/>
+      <c r="W29" s="261"/>
     </row>
     <row r="30" spans="1:23" ht="16" thickBot="1">
       <c r="A30" s="124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="125"/>
       <c r="C30" s="125"/>
@@ -17821,7 +17821,7 @@
       <c r="L30" s="125"/>
       <c r="M30" s="125"/>
       <c r="O30" s="145" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P30" s="146">
         <v>0.1</v>
@@ -17829,15 +17829,15 @@
       <c r="Q30" s="147">
         <v>5.61</v>
       </c>
-      <c r="S30" s="263"/>
-      <c r="T30" s="263"/>
+      <c r="S30" s="262"/>
+      <c r="T30" s="262"/>
       <c r="U30" s="62"/>
-      <c r="V30" s="263"/>
-      <c r="W30" s="263"/>
+      <c r="V30" s="262"/>
+      <c r="W30" s="262"/>
     </row>
     <row r="31" spans="1:23" ht="16" thickBot="1">
       <c r="A31" s="124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="125"/>
       <c r="C31" s="125"/>
@@ -17852,7 +17852,7 @@
       <c r="L31" s="125"/>
       <c r="M31" s="125"/>
       <c r="O31" s="148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P31" s="149">
         <v>0.1</v>
@@ -17860,24 +17860,24 @@
       <c r="Q31" s="150">
         <v>5.61</v>
       </c>
-      <c r="S31" s="259"/>
-      <c r="T31" s="259"/>
+      <c r="S31" s="263"/>
+      <c r="T31" s="263"/>
       <c r="U31" s="62"/>
-      <c r="V31" s="259"/>
-      <c r="W31" s="259"/>
+      <c r="V31" s="263"/>
+      <c r="W31" s="263"/>
     </row>
     <row r="32" spans="1:23" ht="16" thickBot="1">
       <c r="A32" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D32" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E32" s="125"/>
       <c r="F32" s="125"/>
@@ -17889,27 +17889,27 @@
       <c r="L32" s="125"/>
       <c r="M32" s="125"/>
       <c r="O32" s="151" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P32" s="152">
         <v>1</v>
       </c>
       <c r="Q32" s="153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S32" s="62"/>
       <c r="T32" s="120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U32" s="119">
         <v>51</v>
       </c>
-      <c r="V32" s="259"/>
-      <c r="W32" s="259"/>
+      <c r="V32" s="263"/>
+      <c r="W32" s="263"/>
     </row>
     <row r="33" spans="15:17" ht="16" thickBot="1">
       <c r="O33" s="154" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P33" s="155">
         <v>15</v>
@@ -17920,18 +17920,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V31:W31"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="V16:W16"/>
@@ -17945,14 +17941,18 @@
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17977,29 +17977,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.5">
       <c r="A1" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="C1" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="107" t="s">
-        <v>390</v>
-      </c>
       <c r="E1" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1" s="107"/>
       <c r="G1" s="107"/>
       <c r="H1" s="107" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I1" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -18010,7 +18010,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -18021,7 +18021,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -18032,7 +18032,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -18043,7 +18043,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -18054,7 +18054,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -18065,7 +18065,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
         <v>148</v>
@@ -18076,7 +18076,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>156</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
         <v>164</v>
@@ -18098,7 +18098,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
         <v>172</v>
@@ -18109,7 +18109,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
         <v>223</v>
@@ -18120,7 +18120,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
         <v>231</v>
@@ -18131,7 +18131,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -18153,7 +18153,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -18164,7 +18164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -18197,7 +18197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B20" t="s">
         <v>148</v>
@@ -18208,7 +18208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
         <v>156</v>
@@ -18219,7 +18219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B22" t="s">
         <v>164</v>
@@ -18230,7 +18230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" t="s">
         <v>172</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
         <v>223</v>
@@ -18252,7 +18252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B25" t="s">
         <v>231</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -18274,7 +18274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -18285,7 +18285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -18296,7 +18296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -18307,7 +18307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
@@ -18318,7 +18318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -18329,7 +18329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B32" t="s">
         <v>149</v>
@@ -18340,7 +18340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" t="s">
         <v>157</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" t="s">
         <v>165</v>
@@ -18362,7 +18362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
@@ -18373,7 +18373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" t="s">
         <v>224</v>
@@ -18384,7 +18384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B37" t="s">
         <v>232</v>
@@ -18395,7 +18395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -18406,7 +18406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -18417,7 +18417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -18428,7 +18428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -18461,7 +18461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
         <v>149</v>
@@ -18472,7 +18472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s">
         <v>157</v>
@@ -18483,7 +18483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s">
         <v>165</v>
@@ -18494,7 +18494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s">
         <v>173</v>
@@ -18505,7 +18505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s">
         <v>224</v>
@@ -18516,7 +18516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s">
         <v>232</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -18538,7 +18538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
@@ -18549,7 +18549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
@@ -18560,7 +18560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
@@ -18571,7 +18571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s">
         <v>150</v>
@@ -18604,7 +18604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s">
         <v>158</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
         <v>166</v>
@@ -18626,7 +18626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s">
         <v>174</v>
@@ -18637,7 +18637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s">
         <v>225</v>
@@ -18648,7 +18648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s">
         <v>47</v>
@@ -18659,7 +18659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -18670,7 +18670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -18681,7 +18681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -18692,7 +18692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s">
         <v>46</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s">
         <v>56</v>
@@ -18714,7 +18714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
@@ -18725,7 +18725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s">
         <v>150</v>
@@ -18736,7 +18736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s">
         <v>158</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -18758,7 +18758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s">
         <v>174</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
         <v>225</v>
@@ -18780,7 +18780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s">
         <v>47</v>
@@ -18791,10 +18791,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C74" s="40">
         <v>28.78</v>
@@ -18802,10 +18802,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C75" s="40">
         <v>29.1</v>
@@ -18813,10 +18813,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C76" s="40">
         <v>29.24</v>
@@ -18846,29 +18846,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.5">
       <c r="A1" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="C1" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="107" t="s">
-        <v>390</v>
-      </c>
       <c r="E1" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1" s="107"/>
       <c r="G1" s="107"/>
       <c r="H1" s="107" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I1" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -18890,7 +18890,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -18901,7 +18901,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -18912,7 +18912,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -18923,7 +18923,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
         <v>151</v>
@@ -18945,7 +18945,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>159</v>
@@ -18956,7 +18956,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
         <v>167</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
         <v>218</v>
@@ -18978,7 +18978,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
         <v>226</v>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -19000,7 +19000,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -19011,7 +19011,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -19022,7 +19022,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -19033,7 +19033,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -19044,7 +19044,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -19066,7 +19066,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B20" t="s">
         <v>151</v>
@@ -19077,7 +19077,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
         <v>159</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B22" t="s">
         <v>167</v>
@@ -19099,7 +19099,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" t="s">
         <v>218</v>
@@ -19110,7 +19110,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
         <v>226</v>
@@ -19121,7 +19121,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -19132,7 +19132,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -19154,7 +19154,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -19187,7 +19187,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B31" t="s">
         <v>66</v>
@@ -19198,7 +19198,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B32" t="s">
         <v>152</v>
@@ -19209,7 +19209,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" t="s">
         <v>160</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" t="s">
         <v>168</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" t="s">
         <v>219</v>
@@ -19242,7 +19242,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" t="s">
         <v>227</v>
@@ -19253,7 +19253,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B37" t="s">
         <v>145</v>
@@ -19264,7 +19264,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -19275,7 +19275,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -19286,7 +19286,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -19297,7 +19297,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -19308,7 +19308,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s">
         <v>58</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
@@ -19330,7 +19330,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
         <v>152</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s">
         <v>160</v>
@@ -19352,7 +19352,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s">
         <v>168</v>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s">
         <v>219</v>
@@ -19374,7 +19374,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s">
         <v>227</v>
@@ -19385,7 +19385,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s">
         <v>145</v>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s">
         <v>30</v>
@@ -19418,7 +19418,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B52" t="s">
         <v>41</v>
@@ -19429,7 +19429,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
@@ -19440,7 +19440,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -19451,7 +19451,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s">
         <v>145</v>
@@ -19462,7 +19462,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s">
         <v>153</v>
@@ -19473,7 +19473,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s">
         <v>161</v>
@@ -19484,7 +19484,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
         <v>169</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s">
         <v>220</v>
@@ -19506,7 +19506,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s">
         <v>228</v>
@@ -19517,7 +19517,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s">
         <v>145</v>
@@ -19528,7 +19528,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s">
         <v>30</v>
@@ -19550,7 +19550,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -19561,7 +19561,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -19572,7 +19572,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s">
         <v>145</v>
@@ -19594,7 +19594,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s">
         <v>153</v>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s">
         <v>161</v>
@@ -19616,7 +19616,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
         <v>169</v>
@@ -19627,7 +19627,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s">
         <v>220</v>
@@ -19638,7 +19638,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
         <v>228</v>
@@ -19649,7 +19649,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s">
         <v>145</v>
@@ -19660,10 +19660,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C74" s="40">
         <v>29.51</v>
@@ -19671,10 +19671,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C75" s="40">
         <v>29.67</v>
@@ -19682,10 +19682,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C76" s="40">
         <v>29.51</v>
@@ -19723,29 +19723,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.5">
       <c r="A1" s="215" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="216" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="C1" s="215" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="215" t="s">
-        <v>390</v>
-      </c>
       <c r="E1" s="215" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1" s="215"/>
       <c r="G1" s="215"/>
       <c r="H1" s="215" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I1" s="215" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.5">
       <c r="A2" s="222" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" s="223" t="s">
         <v>23</v>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.5">
       <c r="A3" s="222" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" s="223" t="s">
         <v>31</v>
@@ -19767,7 +19767,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.5">
       <c r="A4" s="222" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" s="223" t="s">
         <v>42</v>
@@ -19778,7 +19778,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.5">
       <c r="A5" s="222" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="223" t="s">
         <v>52</v>
@@ -19789,7 +19789,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.5">
       <c r="A6" s="222" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" s="223" t="s">
         <v>60</v>
@@ -19800,7 +19800,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.5">
       <c r="A7" s="222" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" s="223" t="s">
         <v>146</v>
@@ -19811,7 +19811,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.5">
       <c r="A8" s="222" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="223" t="s">
         <v>154</v>
@@ -19822,7 +19822,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.5">
       <c r="A9" s="222" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" s="223" t="s">
         <v>162</v>
@@ -19833,7 +19833,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.5">
       <c r="A10" s="138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" s="218" t="s">
         <v>170</v>
@@ -19844,7 +19844,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.5">
       <c r="A11" s="138" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="218" t="s">
         <v>221</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.5">
       <c r="A12" s="138" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" s="218" t="s">
         <v>229</v>
@@ -19866,7 +19866,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.5">
       <c r="A13" s="138" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" s="218" t="s">
         <v>219</v>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.5">
       <c r="A14" s="222" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" s="223" t="s">
         <v>23</v>
@@ -19888,7 +19888,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.5">
       <c r="A15" s="222" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" s="223" t="s">
         <v>31</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.5">
       <c r="A16" s="222" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" s="223" t="s">
         <v>42</v>
@@ -19910,7 +19910,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.5">
       <c r="A17" s="222" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="223" t="s">
         <v>52</v>
@@ -19921,7 +19921,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.5">
       <c r="A18" s="222" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B18" s="223" t="s">
         <v>60</v>
@@ -19932,7 +19932,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.5">
       <c r="A19" s="222" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" s="223" t="s">
         <v>146</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.5">
       <c r="A20" s="222" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B20" s="223" t="s">
         <v>154</v>
@@ -19954,7 +19954,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.5">
       <c r="A21" s="222" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="223" t="s">
         <v>162</v>
@@ -19965,7 +19965,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.5">
       <c r="A22" s="138" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B22" s="218" t="s">
         <v>170</v>
@@ -19976,7 +19976,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.5">
       <c r="A23" s="138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" s="218" t="s">
         <v>221</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.5">
       <c r="A24" s="138" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B24" s="218" t="s">
         <v>229</v>
@@ -19998,7 +19998,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.5">
       <c r="A25" s="138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B25" s="218" t="s">
         <v>219</v>
@@ -20009,7 +20009,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.5">
       <c r="A26" s="138" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B26" s="218" t="s">
         <v>24</v>
@@ -20020,7 +20020,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.5">
       <c r="A27" s="138" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B27" s="218" t="s">
         <v>35</v>
@@ -20031,7 +20031,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.5">
       <c r="A28" s="138" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" s="218" t="s">
         <v>43</v>
@@ -20042,7 +20042,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.5">
       <c r="A29" s="138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B29" s="218" t="s">
         <v>53</v>
@@ -20053,7 +20053,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.5">
       <c r="A30" s="138" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B30" s="218" t="s">
         <v>61</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.5">
       <c r="A31" s="138" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B31" s="218" t="s">
         <v>147</v>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.5">
       <c r="A32" s="138" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B32" s="218" t="s">
         <v>155</v>
@@ -20086,7 +20086,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.5">
       <c r="A33" s="138" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" s="218" t="s">
         <v>163</v>
@@ -20097,7 +20097,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.5">
       <c r="A34" s="138" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" s="218" t="s">
         <v>171</v>
@@ -20108,7 +20108,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.5">
       <c r="A35" s="138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" s="218" t="s">
         <v>222</v>
@@ -20119,7 +20119,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.5">
       <c r="A36" s="138" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" s="218" t="s">
         <v>230</v>
@@ -20130,7 +20130,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.5">
       <c r="A37" s="138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B37" s="218" t="s">
         <v>219</v>
@@ -20141,7 +20141,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.5">
       <c r="A38" s="138" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" s="218" t="s">
         <v>24</v>
@@ -20150,12 +20150,12 @@
         <v>28.17</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.5">
       <c r="A39" s="138" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B39" s="218" t="s">
         <v>35</v>
@@ -20166,7 +20166,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.5">
       <c r="A40" s="138" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B40" s="218" t="s">
         <v>43</v>
@@ -20177,7 +20177,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.5">
       <c r="A41" s="138" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B41" s="218" t="s">
         <v>53</v>
@@ -20188,7 +20188,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.5">
       <c r="A42" s="138" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" s="218" t="s">
         <v>61</v>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.5">
       <c r="A43" s="138" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="218" t="s">
         <v>147</v>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.5">
       <c r="A44" s="138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" s="218" t="s">
         <v>155</v>
@@ -20221,7 +20221,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.5">
       <c r="A45" s="138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" s="218" t="s">
         <v>163</v>
@@ -20232,7 +20232,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.5">
       <c r="A46" s="138" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" s="218" t="s">
         <v>171</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.5">
       <c r="A47" s="138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" s="218" t="s">
         <v>222</v>
@@ -20254,7 +20254,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.5">
       <c r="A48" s="138" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B48" s="218" t="s">
         <v>230</v>
@@ -20265,7 +20265,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.5">
       <c r="A49" s="138" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" s="218" t="s">
         <v>219</v>
@@ -20276,7 +20276,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.5">
       <c r="A50" s="138" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" s="219" t="s">
         <v>23</v>
@@ -20287,7 +20287,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.5">
       <c r="A51" s="138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" s="219" t="s">
         <v>31</v>
@@ -20298,7 +20298,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.5">
       <c r="A52" s="138" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B52" s="219" t="s">
         <v>42</v>
@@ -20309,7 +20309,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.5">
       <c r="A53" s="138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B53" s="219" t="s">
         <v>52</v>
@@ -20320,7 +20320,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.5">
       <c r="A54" s="138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B54" s="219" t="s">
         <v>60</v>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.5">
       <c r="A55" s="138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B55" s="219" t="s">
         <v>146</v>
@@ -20342,7 +20342,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.5">
       <c r="A56" s="138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B56" s="219" t="s">
         <v>154</v>
@@ -20353,7 +20353,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.5">
       <c r="A57" s="138" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" s="219" t="s">
         <v>162</v>
@@ -20364,10 +20364,10 @@
     </row>
     <row r="58" spans="1:3" ht="15.5">
       <c r="A58" s="138" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B58" s="220" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C58" s="217">
         <v>27.99</v>
@@ -20375,10 +20375,10 @@
     </row>
     <row r="59" spans="1:3" ht="15.5">
       <c r="A59" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B59" s="220" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C59" s="217">
         <v>28.02</v>
@@ -20386,10 +20386,10 @@
     </row>
     <row r="60" spans="1:3" ht="15.5">
       <c r="A60" s="138" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B60" s="220" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C60" s="217">
         <v>28.24</v>
@@ -20426,40 +20426,40 @@
     <row r="1" spans="1:19" ht="16" thickBot="1">
       <c r="A1" s="117"/>
       <c r="B1" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="D1" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="E1" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="F1" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="G1" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="H1" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="I1" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="J1" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="K1" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="L1" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="M1" s="107" t="s">
         <v>315</v>
-      </c>
-      <c r="M1" s="107" t="s">
-        <v>316</v>
       </c>
       <c r="N1" s="62"/>
       <c r="O1" s="62"/>
@@ -20507,7 +20507,7 @@
       <c r="N2" s="119"/>
       <c r="O2" s="62"/>
       <c r="P2" s="232" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q2" s="233"/>
       <c r="R2" s="233"/>
@@ -20515,7 +20515,7 @@
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1">
       <c r="A3" s="120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="167" t="s">
         <v>17</v>
@@ -20554,21 +20554,21 @@
         <v>231</v>
       </c>
       <c r="N3" s="107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O3" s="62"/>
       <c r="P3" s="235" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q3" s="235" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R3" s="235"/>
       <c r="S3" s="236"/>
     </row>
     <row r="4" spans="1:19" ht="15.5">
       <c r="A4" s="120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="171" t="s">
         <v>18</v>
@@ -20607,21 +20607,21 @@
         <v>232</v>
       </c>
       <c r="N4" s="107" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O4" s="62"/>
       <c r="P4" s="233" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="234" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R4" s="235"/>
       <c r="S4" s="236"/>
     </row>
     <row r="5" spans="1:19" ht="15.5">
       <c r="A5" s="120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="174" t="s">
         <v>19</v>
@@ -20660,23 +20660,23 @@
         <v>47</v>
       </c>
       <c r="N5" s="107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O5" s="62"/>
       <c r="P5" s="235" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q5" s="236" t="s">
         <v>582</v>
-      </c>
-      <c r="Q5" s="236" t="s">
-        <v>583</v>
       </c>
       <c r="R5" s="235"/>
       <c r="S5" s="237" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16" thickBot="1">
       <c r="A6" s="120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="177" t="s">
         <v>20</v>
@@ -20715,21 +20715,21 @@
         <v>47</v>
       </c>
       <c r="N6" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O6" s="62"/>
       <c r="P6" s="238" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="239" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R6" s="235"/>
       <c r="S6" s="236"/>
     </row>
     <row r="7" spans="1:19" ht="16" thickBot="1">
       <c r="A7" s="120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="180" t="s">
         <v>21</v>
@@ -20768,21 +20768,21 @@
         <v>145</v>
       </c>
       <c r="N7" s="107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O7" s="62"/>
       <c r="P7" s="238" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q7" s="238" t="s">
         <v>584</v>
-      </c>
-      <c r="Q7" s="238" t="s">
-        <v>585</v>
       </c>
       <c r="R7" s="238"/>
       <c r="S7" s="239"/>
     </row>
     <row r="8" spans="1:19" ht="15.5">
       <c r="A8" s="120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="183" t="s">
         <v>22</v>
@@ -20821,7 +20821,7 @@
         <v>145</v>
       </c>
       <c r="N8" s="107" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
@@ -20829,7 +20829,7 @@
     </row>
     <row r="9" spans="1:19" ht="15.5">
       <c r="A9" s="120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="186" t="s">
         <v>23</v>
@@ -20868,7 +20868,7 @@
         <v>219</v>
       </c>
       <c r="N9" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="10" spans="1:19" ht="16" thickBot="1">
       <c r="A10" s="120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="189" t="s">
         <v>24</v>
@@ -20915,15 +20915,15 @@
         <v>219</v>
       </c>
       <c r="N10" s="107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
     </row>
     <row r="11" spans="1:19" ht="16" thickBot="1">
-      <c r="A11" s="259"/>
-      <c r="B11" s="259"/>
+      <c r="A11" s="263"/>
+      <c r="B11" s="263"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -20943,46 +20943,46 @@
     <row r="12" spans="1:19" ht="16" thickBot="1">
       <c r="A12" s="62"/>
       <c r="B12" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="D12" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="E12" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="F12" s="118" t="s">
         <v>273</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="G12" s="118" t="s">
         <v>274</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="H12" s="118" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="I12" s="118" t="s">
         <v>276</v>
-      </c>
-      <c r="I12" s="118" t="s">
-        <v>277</v>
       </c>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62"/>
       <c r="M12" s="120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N12" s="118">
         <v>4</v>
       </c>
       <c r="O12" s="139" t="s">
+        <v>366</v>
+      </c>
+      <c r="P12" s="140" t="s">
         <v>367</v>
       </c>
-      <c r="P12" s="140" t="s">
+      <c r="Q12" s="192" t="s">
         <v>368</v>
-      </c>
-      <c r="Q12" s="192" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16" thickBot="1">
@@ -20990,28 +20990,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="193" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="194" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="194" t="s">
+      <c r="D13" s="195" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="195" t="s">
+      <c r="E13" s="196" t="s">
         <v>382</v>
       </c>
-      <c r="E13" s="196" t="s">
+      <c r="F13" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="F13" s="197" t="s">
+      <c r="G13" s="198" t="s">
         <v>384</v>
       </c>
-      <c r="G13" s="198" t="s">
+      <c r="H13" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="H13" s="199" t="s">
+      <c r="I13" s="200" t="s">
         <v>386</v>
-      </c>
-      <c r="I13" s="200" t="s">
-        <v>387</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -21019,7 +21019,7 @@
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="142" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P13" s="201">
         <v>1</v>
@@ -21029,8 +21029,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5">
-      <c r="A14" s="259"/>
-      <c r="B14" s="259"/>
+      <c r="A14" s="263"/>
+      <c r="B14" s="263"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -21044,7 +21044,7 @@
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="145" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P14" s="203">
         <v>14.4</v>
@@ -21054,8 +21054,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.5">
-      <c r="A15" s="259"/>
-      <c r="B15" s="259"/>
+      <c r="A15" s="263"/>
+      <c r="B15" s="263"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -21069,7 +21069,7 @@
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P15" s="203">
         <v>1</v>
@@ -21079,8 +21079,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5">
-      <c r="A16" s="259"/>
-      <c r="B16" s="259"/>
+      <c r="A16" s="263"/>
+      <c r="B16" s="263"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -21094,7 +21094,7 @@
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="145" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P16" s="203">
         <v>1</v>
@@ -21104,8 +21104,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.5">
-      <c r="A17" s="259"/>
-      <c r="B17" s="259"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="263"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -21119,7 +21119,7 @@
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="145" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P17" s="203">
         <v>0.6</v>
@@ -21129,8 +21129,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.5">
-      <c r="A18" s="259"/>
-      <c r="B18" s="259"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="263"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
@@ -21144,7 +21144,7 @@
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="145" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P18" s="203">
         <v>5</v>
@@ -21154,8 +21154,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="259"/>
+      <c r="A19" s="263"/>
+      <c r="B19" s="263"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -21169,7 +21169,7 @@
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
       <c r="O19" s="148" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P19" s="205">
         <v>1</v>
@@ -21179,8 +21179,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1">
-      <c r="A20" s="259"/>
-      <c r="B20" s="259"/>
+      <c r="A20" s="263"/>
+      <c r="B20" s="263"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -21194,7 +21194,7 @@
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
       <c r="O20" s="207" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P20" s="208">
         <v>24</v>
@@ -21204,8 +21204,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.5">
-      <c r="A21" s="259"/>
-      <c r="B21" s="259"/>
+      <c r="A21" s="263"/>
+      <c r="B21" s="263"/>
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
@@ -21223,8 +21223,8 @@
       <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="1:17" ht="42">
-      <c r="A22" s="259"/>
-      <c r="B22" s="259"/>
+      <c r="A22" s="263"/>
+      <c r="B22" s="263"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -21238,7 +21238,7 @@
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
       <c r="O22" s="210" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P22" s="211">
         <v>6</v>
@@ -21246,8 +21246,8 @@
       <c r="Q22" s="62"/>
     </row>
     <row r="23" spans="1:17" ht="28">
-      <c r="A23" s="259"/>
-      <c r="B23" s="259"/>
+      <c r="A23" s="263"/>
+      <c r="B23" s="263"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -21255,15 +21255,15 @@
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
-      <c r="J23" s="264" t="s">
+      <c r="J23" s="265" t="s">
+        <v>376</v>
+      </c>
+      <c r="K23" s="265"/>
+      <c r="L23" s="265"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="265"/>
+      <c r="O23" s="210" t="s">
         <v>377</v>
-      </c>
-      <c r="K23" s="264"/>
-      <c r="L23" s="264"/>
-      <c r="M23" s="264"/>
-      <c r="N23" s="264"/>
-      <c r="O23" s="210" t="s">
-        <v>378</v>
       </c>
       <c r="P23" s="211">
         <v>20</v>
@@ -21271,8 +21271,8 @@
       <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="1:17" ht="15.5">
-      <c r="A24" s="259"/>
-      <c r="B24" s="259"/>
+      <c r="A24" s="263"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
@@ -21291,6 +21291,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="J23:N23"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
@@ -21298,12 +21304,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
